--- a/Article Category Data/Categories2023-04-20 151654.493692.xlsx
+++ b/Article Category Data/Categories2023-04-20 151654.493692.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\Hadiya\fyp\khulasa\Article Category Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F768B37-445C-4619-A8AD-65F080AE8D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="428" count="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="428">
   <si>
     <t>title</t>
   </si>
@@ -149,7 +157,7 @@
     <t>https://www.jasarat.com/2023/04/20/the-prime-minister-expressed-happiness-over-the-launch-of-robotic-surgery-at-pkli/</t>
   </si>
   <si>
-    <t>اداکارہ رباب ہاشم کے گھر ننھی پری کی آمد </t>
+    <t>اداکارہ رباب ہاشم کے گھر ننھی پری کی آمد</t>
   </si>
   <si>
     <t>https://jang.com.pk/news/1217441</t>
@@ -173,7 +181,7 @@
     <t>https://www.bbc.com/urdu/articles/c2v309vxqz1o</t>
   </si>
   <si>
-    <t>محبت کی شادی میں 6سال تک تشدد، ذہنی اذیت اور استحصال برداشت کیا، دانیہ انور </t>
+    <t>محبت کی شادی میں 6سال تک تشدد، ذہنی اذیت اور استحصال برداشت کیا، دانیہ انور</t>
   </si>
   <si>
     <t>https://jang.com.pk/news/1217452</t>
@@ -191,7 +199,7 @@
     <t>https://www.bbc.com/urdu/articles/c6pl2k5j12do</t>
   </si>
   <si>
-    <t>عید کے دوران زمان پارک میں ممکنہ آپریشن کیخلاف بشریٰ بی بی کی درخواست1 لاکھ جرمانے کیساتھ خارج </t>
+    <t>عید کے دوران زمان پارک میں ممکنہ آپریشن کیخلاف بشریٰ بی بی کی درخواست1 لاکھ جرمانے کیساتھ خارج</t>
   </si>
   <si>
     <t>https://jang.com.pk/news/1217515</t>
@@ -263,7 +271,7 @@
     <t>https://www.jasarat.com/2023/04/20/ajk-prime-minister/</t>
   </si>
   <si>
-    <t>رمضان اسپیشل: آج بنائیں منفرد اور جھٹ پٹ ریسیپی کے ساتھ ریشہ کباب </t>
+    <t>رمضان اسپیشل: آج بنائیں منفرد اور جھٹ پٹ ریسیپی کے ساتھ ریشہ کباب</t>
   </si>
   <si>
     <t>https://jang.com.pk/news/1217491</t>
@@ -311,7 +319,7 @@
     <t>https://jang.com.pk/news/1217486</t>
   </si>
   <si>
-    <t>اداکاری میں آنے کا کوئی ارادہ نہیں تھا، طوبیٰ انور </t>
+    <t>اداکاری میں آنے کا کوئی ارادہ نہیں تھا، طوبیٰ انور</t>
   </si>
   <si>
     <t>https://jang.com.pk/news/1217488</t>
@@ -323,7 +331,7 @@
     <t>https://www.dawnnews.tv/news/1201175/</t>
   </si>
   <si>
-    <t> ایس سی او اجلاس، وزیردفاع خواجہ آصف بھارت نہیں جائیں گے</t>
+    <t>ایس سی او اجلاس، وزیردفاع خواجہ آصف بھارت نہیں جائیں گے</t>
   </si>
   <si>
     <t>https://jang.com.pk/news/1217467</t>
@@ -368,7 +376,7 @@
     <t>https://www.dawnnews.tv/news/1201242/</t>
   </si>
   <si>
-    <t>اپوزیشن کیساتھ انتخابات کا حل نکالنے کیلئے تیار ہیں، سعد رفیق </t>
+    <t>اپوزیشن کیساتھ انتخابات کا حل نکالنے کیلئے تیار ہیں، سعد رفیق</t>
   </si>
   <si>
     <t>https://jang.com.pk/news/1217479</t>
@@ -434,7 +442,7 @@
     <t>https://www.dawnnews.tv/news/1201218/</t>
   </si>
   <si>
-    <t>یش راج فلمز کا شاہ رخ خان اور سلمان خان کے مداحوں کیلئے خاص تحفہ </t>
+    <t>یش راج فلمز کا شاہ رخ خان اور سلمان خان کے مداحوں کیلئے خاص تحفہ</t>
   </si>
   <si>
     <t>https://jang.com.pk/news/1217490</t>
@@ -584,7 +592,7 @@
     <t>https://www.jasarat.com/2023/04/20/230420-03-9/</t>
   </si>
   <si>
-    <t> سعودی عرب کے دورے کی تاریخ طے نہیں ہوئی، اسرائیلی وزیر خارجہ</t>
+    <t>سعودی عرب کے دورے کی تاریخ طے نہیں ہوئی، اسرائیلی وزیر خارجہ</t>
   </si>
   <si>
     <t>https://jang.com.pk/news/1217241</t>
@@ -674,7 +682,7 @@
     <t>https://jang.com.pk/news/1217356</t>
   </si>
   <si>
-    <t>پارلیمان اچھے قوانین بنائے، چیف جسٹس کا اسپیکر کو خط </t>
+    <t>پارلیمان اچھے قوانین بنائے، چیف جسٹس کا اسپیکر کو خط</t>
   </si>
   <si>
     <t>https://jang.com.pk/news/1217357</t>
@@ -1082,7 +1090,7 @@
     <t>https://www.bbc.com/urdu/articles/ceq5qp3v954o</t>
   </si>
   <si>
-    <t>چہرے پرانڈین پرچم کا ٹیٹو، رضاکار نے خاتون کو گولڈن ٹمپل میں داخل ہونےسےروک دیا ’یہ انڈیا نہیں یہ پنجاب ہے‘ </t>
+    <t>چہرے پرانڈین پرچم کا ٹیٹو، رضاکار نے خاتون کو گولڈن ٹمپل میں داخل ہونےسےروک دیا ’یہ انڈیا نہیں یہ پنجاب ہے‘</t>
   </si>
   <si>
     <t>https://www.bbc.com/urdu/articles/c0j7jq84zjwo</t>
@@ -1301,10 +1309,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -1330,31 +1338,335 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C210"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="B95" sqref="B95"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.574285714285715" customWidth="1"/>
-    <col min="2" max="2" width="5.144285714285714" customWidth="1"/>
-    <col min="3" max="3" width="9.574285714285713" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1364,10 +1676,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1"/>
-      <c r="E1"/>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1378,7 +1688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1389,7 +1699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1400,7 +1710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1411,7 +1721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1422,7 +1732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1433,7 +1743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1444,7 +1754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1455,7 +1765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -1466,7 +1776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1477,7 +1787,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1488,7 +1798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1499,7 +1809,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1510,7 +1820,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1521,7 +1831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1532,7 +1842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1543,7 +1853,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -1554,7 +1864,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1565,7 +1875,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -1576,7 +1886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -1587,7 +1897,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -1598,7 +1908,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -1609,7 +1919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -1620,7 +1930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -1631,7 +1941,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -1642,7 +1952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -1653,7 +1963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -1664,7 +1974,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -1675,7 +1985,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -1686,7 +1996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -1697,7 +2007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -1708,7 +2018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -1719,7 +2029,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -1730,7 +2040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -1741,7 +2051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -1752,7 +2062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -1763,7 +2073,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>81</v>
       </c>
@@ -1774,7 +2084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -1785,7 +2095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>85</v>
       </c>
@@ -1796,7 +2106,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -1807,7 +2117,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -1818,7 +2128,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>91</v>
       </c>
@@ -1829,7 +2139,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -1840,7 +2150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>95</v>
       </c>
@@ -1851,7 +2161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>97</v>
       </c>
@@ -1862,7 +2172,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>99</v>
       </c>
@@ -1873,7 +2183,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>101</v>
       </c>
@@ -1884,7 +2194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>103</v>
       </c>
@@ -1895,7 +2205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>105</v>
       </c>
@@ -1906,7 +2216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>107</v>
       </c>
@@ -1917,7 +2227,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>110</v>
       </c>
@@ -1928,7 +2238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>112</v>
       </c>
@@ -1939,7 +2249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>114</v>
       </c>
@@ -1950,7 +2260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>116</v>
       </c>
@@ -1961,7 +2271,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>118</v>
       </c>
@@ -1972,7 +2282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>120</v>
       </c>
@@ -1983,7 +2293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>122</v>
       </c>
@@ -1994,7 +2304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>124</v>
       </c>
@@ -2005,7 +2315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>126</v>
       </c>
@@ -2016,7 +2326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>128</v>
       </c>
@@ -2027,7 +2337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>130</v>
       </c>
@@ -2038,7 +2348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>132</v>
       </c>
@@ -2049,7 +2359,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>134</v>
       </c>
@@ -2060,7 +2370,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>136</v>
       </c>
@@ -2071,7 +2381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>138</v>
       </c>
@@ -2082,7 +2392,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>140</v>
       </c>
@@ -2093,7 +2403,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>142</v>
       </c>
@@ -2104,7 +2414,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>144</v>
       </c>
@@ -2115,7 +2425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>146</v>
       </c>
@@ -2126,7 +2436,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>148</v>
       </c>
@@ -2137,7 +2447,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>150</v>
       </c>
@@ -2148,7 +2458,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>152</v>
       </c>
@@ -2159,7 +2469,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>154</v>
       </c>
@@ -2170,7 +2480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>156</v>
       </c>
@@ -2181,7 +2491,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>158</v>
       </c>
@@ -2192,7 +2502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>160</v>
       </c>
@@ -2203,7 +2513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>162</v>
       </c>
@@ -2214,7 +2524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>164</v>
       </c>
@@ -2225,7 +2535,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>166</v>
       </c>
@@ -2236,7 +2546,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>168</v>
       </c>
@@ -2247,7 +2557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>170</v>
       </c>
@@ -2258,7 +2568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>172</v>
       </c>
@@ -2269,7 +2579,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>174</v>
       </c>
@@ -2280,7 +2590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>176</v>
       </c>
@@ -2291,7 +2601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>178</v>
       </c>
@@ -2302,7 +2612,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>180</v>
       </c>
@@ -2313,7 +2623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>182</v>
       </c>
@@ -2324,7 +2634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>184</v>
       </c>
@@ -2335,7 +2645,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>186</v>
       </c>
@@ -2346,7 +2656,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>188</v>
       </c>
@@ -2357,7 +2667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>190</v>
       </c>
@@ -2368,7 +2678,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>192</v>
       </c>
@@ -2379,7 +2689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>194</v>
       </c>
@@ -2390,7 +2700,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>196</v>
       </c>
@@ -2401,7 +2711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>198</v>
       </c>
@@ -2412,7 +2722,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>200</v>
       </c>
@@ -2423,7 +2733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>202</v>
       </c>
@@ -2434,7 +2744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>204</v>
       </c>
@@ -2445,7 +2755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>206</v>
       </c>
@@ -2456,7 +2766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>208</v>
       </c>
@@ -2467,7 +2777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>210</v>
       </c>
@@ -2478,7 +2788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>212</v>
       </c>
@@ -2489,7 +2799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>214</v>
       </c>
@@ -2500,7 +2810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>216</v>
       </c>
@@ -2511,7 +2821,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>218</v>
       </c>
@@ -2522,7 +2832,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>220</v>
       </c>
@@ -2533,7 +2843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>222</v>
       </c>
@@ -2544,7 +2854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>224</v>
       </c>
@@ -2555,7 +2865,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>226</v>
       </c>
@@ -2566,7 +2876,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>228</v>
       </c>
@@ -2577,7 +2887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>230</v>
       </c>
@@ -2588,7 +2898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>232</v>
       </c>
@@ -2599,7 +2909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>234</v>
       </c>
@@ -2610,7 +2920,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>236</v>
       </c>
@@ -2621,7 +2931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>238</v>
       </c>
@@ -2632,7 +2942,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>240</v>
       </c>
@@ -2643,7 +2953,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>242</v>
       </c>
@@ -2654,7 +2964,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>244</v>
       </c>
@@ -2665,7 +2975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>246</v>
       </c>
@@ -2676,7 +2986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>248</v>
       </c>
@@ -2687,7 +2997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>250</v>
       </c>
@@ -2698,7 +3008,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>252</v>
       </c>
@@ -2709,7 +3019,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>254</v>
       </c>
@@ -2720,7 +3030,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>256</v>
       </c>
@@ -2731,7 +3041,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>258</v>
       </c>
@@ -2742,7 +3052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>260</v>
       </c>
@@ -2753,7 +3063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>262</v>
       </c>
@@ -2764,7 +3074,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>264</v>
       </c>
@@ -2775,7 +3085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>266</v>
       </c>
@@ -2786,7 +3096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>268</v>
       </c>
@@ -2797,7 +3107,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>270</v>
       </c>
@@ -2808,7 +3118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>272</v>
       </c>
@@ -2819,7 +3129,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>274</v>
       </c>
@@ -2830,7 +3140,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>276</v>
       </c>
@@ -2841,7 +3151,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>278</v>
       </c>
@@ -2852,7 +3162,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>280</v>
       </c>
@@ -2863,7 +3173,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>282</v>
       </c>
@@ -2874,7 +3184,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>284</v>
       </c>
@@ -2885,7 +3195,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>286</v>
       </c>
@@ -2896,7 +3206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>288</v>
       </c>
@@ -2907,7 +3217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>290</v>
       </c>
@@ -2918,7 +3228,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>292</v>
       </c>
@@ -2929,7 +3239,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>294</v>
       </c>
@@ -2940,7 +3250,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>296</v>
       </c>
@@ -2951,7 +3261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>298</v>
       </c>
@@ -2962,7 +3272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>300</v>
       </c>
@@ -2973,7 +3283,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>302</v>
       </c>
@@ -2984,7 +3294,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>304</v>
       </c>
@@ -2995,7 +3305,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>306</v>
       </c>
@@ -3006,7 +3316,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>308</v>
       </c>
@@ -3017,7 +3327,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>310</v>
       </c>
@@ -3028,7 +3338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>312</v>
       </c>
@@ -3039,7 +3349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>260</v>
       </c>
@@ -3050,7 +3360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>315</v>
       </c>
@@ -3061,7 +3371,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>317</v>
       </c>
@@ -3072,7 +3382,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>319</v>
       </c>
@@ -3083,7 +3393,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>321</v>
       </c>
@@ -3094,7 +3404,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>323</v>
       </c>
@@ -3105,7 +3415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>325</v>
       </c>
@@ -3116,7 +3426,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>327</v>
       </c>
@@ -3127,7 +3437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>329</v>
       </c>
@@ -3138,7 +3448,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>331</v>
       </c>
@@ -3149,7 +3459,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>333</v>
       </c>
@@ -3160,7 +3470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>335</v>
       </c>
@@ -3171,7 +3481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>337</v>
       </c>
@@ -3182,7 +3492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>339</v>
       </c>
@@ -3193,7 +3503,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>342</v>
       </c>
@@ -3204,7 +3514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>344</v>
       </c>
@@ -3215,7 +3525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>346</v>
       </c>
@@ -3226,7 +3536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>348</v>
       </c>
@@ -3237,7 +3547,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>350</v>
       </c>
@@ -3248,7 +3558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>352</v>
       </c>
@@ -3259,7 +3569,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>354</v>
       </c>
@@ -3270,7 +3580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>356</v>
       </c>
@@ -3281,7 +3591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>358</v>
       </c>
@@ -3292,7 +3602,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>360</v>
       </c>
@@ -3303,7 +3613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>362</v>
       </c>
@@ -3314,7 +3624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>364</v>
       </c>
@@ -3325,7 +3635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>366</v>
       </c>
@@ -3336,7 +3646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>368</v>
       </c>
@@ -3347,7 +3657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>370</v>
       </c>
@@ -3358,7 +3668,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>372</v>
       </c>
@@ -3369,7 +3679,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>374</v>
       </c>
@@ -3380,7 +3690,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>376</v>
       </c>
@@ -3391,7 +3701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>378</v>
       </c>
@@ -3402,7 +3712,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>380</v>
       </c>
@@ -3413,7 +3723,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>382</v>
       </c>
@@ -3424,7 +3734,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>384</v>
       </c>
@@ -3435,7 +3745,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>386</v>
       </c>
@@ -3446,7 +3756,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>388</v>
       </c>
@@ -3457,7 +3767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>390</v>
       </c>
@@ -3468,7 +3778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>392</v>
       </c>
@@ -3479,7 +3789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>394</v>
       </c>
@@ -3490,7 +3800,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>396</v>
       </c>
@@ -3501,7 +3811,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>398</v>
       </c>
@@ -3512,7 +3822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>400</v>
       </c>
@@ -3523,7 +3833,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>402</v>
       </c>
@@ -3534,7 +3844,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>404</v>
       </c>
@@ -3545,7 +3855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>406</v>
       </c>
@@ -3556,7 +3866,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>408</v>
       </c>
@@ -3567,7 +3877,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>410</v>
       </c>
@@ -3578,7 +3888,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>412</v>
       </c>
@@ -3589,7 +3899,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>414</v>
       </c>
@@ -3600,7 +3910,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>416</v>
       </c>
@@ -3611,7 +3921,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>418</v>
       </c>
@@ -3622,7 +3932,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>420</v>
       </c>
@@ -3633,7 +3943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>422</v>
       </c>
@@ -3644,7 +3954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>424</v>
       </c>
@@ -3655,7 +3965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>426</v>
       </c>
@@ -3667,8 +3977,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>
-  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
-  <extLst/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>